--- a/dataFiles/ForgotPassword-Negative.xlsx
+++ b/dataFiles/ForgotPassword-Negative.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
   <si>
     <t>Field</t>
   </si>
@@ -182,6 +182,39 @@
   </si>
   <si>
     <t>Program</t>
+  </si>
+  <si>
+    <t>To verify user enter the empty space only</t>
+  </si>
+  <si>
+    <t>To verify user enter the numbers only</t>
+  </si>
+  <si>
+    <t>To verify user enter the special characters only</t>
+  </si>
+  <si>
+    <t>To verify user enter the uppercases only</t>
+  </si>
+  <si>
+    <t>To verify user enter the lowercases only</t>
+  </si>
+  <si>
+    <t>To verify, the user enter a single lowercase letter only.</t>
+  </si>
+  <si>
+    <t>To verify user without enter numbers</t>
+  </si>
+  <si>
+    <t>To verify the user enter witout enter witout enter Uppercases</t>
+  </si>
+  <si>
+    <t>To verify the user enter witout enter witout enter lower cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify user witout enter special characters </t>
+  </si>
+  <si>
+    <t>Test Description</t>
   </si>
 </sst>
 </file>
@@ -555,489 +588,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H11">
       <formula1>"'76543324,!@#$%^&amp;*,RVMBJSKI,jrspdert,k,Prabha@er,prabha@1r,TEST@12DS,DEMOtv12,empty"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11">
       <formula1>"Prabha@12345,Test@12386,eTert@123,aaaA@123,kghTjh@134,fhhT@321"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
   </dataValidations>
